--- a/February/0201/result.xlsx
+++ b/February/0201/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosumosu\Desktop\0201\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Research\February\0201\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F7CA3-487F-48A1-BD04-C3516D80CDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821F6A8-B2E9-4613-972B-FC76C5B86253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="4665" windowWidth="21810" windowHeight="18945" xr2:uid="{BC4AC9EB-88AE-4C40-8B9A-EE6C202D4010}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BC4AC9EB-88AE-4C40-8B9A-EE6C202D4010}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DD8D2A-C6B1-4E51-928F-7985ECACBC68}">
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -855,11 +855,11 @@
         <v>1.8799999999999999E-3</v>
       </c>
       <c r="I5" s="1">
-        <f>G5-E5</f>
+        <f t="shared" ref="I5:J7" si="0">G5-E5</f>
         <v>26.946000000000005</v>
       </c>
       <c r="J5" s="1">
-        <f>H5-F5</f>
+        <f t="shared" si="0"/>
         <v>1.0799999999999998E-3</v>
       </c>
       <c r="K5" s="1">
@@ -904,7 +904,7 @@
         <v>750000000</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D9" si="0">B6*C6</f>
+        <f t="shared" ref="D6:D9" si="1">B6*C6</f>
         <v>3000000000</v>
       </c>
       <c r="E6">
@@ -920,15 +920,15 @@
         <v>1.8600000000000001E-3</v>
       </c>
       <c r="I6" s="1">
-        <f>G6-E6</f>
+        <f t="shared" si="0"/>
         <v>33.674999999999997</v>
       </c>
       <c r="J6" s="1">
-        <f>H6-F6</f>
+        <f t="shared" si="0"/>
         <v>1.2600000000000003E-3</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:K9" si="1">J6*3600</f>
+        <f t="shared" ref="K6:K9" si="2">J6*3600</f>
         <v>4.5360000000000014</v>
       </c>
       <c r="M6">
@@ -948,7 +948,7 @@
         <v>1.3775979157620508</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:R9" si="2">Q6/K6*100</f>
+        <f t="shared" ref="R6:R9" si="3">Q6/K6*100</f>
         <v>30.370324421561957</v>
       </c>
       <c r="S6">
@@ -969,7 +969,7 @@
         <v>1000000000</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000</v>
       </c>
       <c r="E7">
@@ -985,15 +985,15 @@
         <v>1.8600000000000001E-3</v>
       </c>
       <c r="I7" s="1">
-        <f>G7-E7</f>
+        <f t="shared" si="0"/>
         <v>44.883000000000003</v>
       </c>
       <c r="J7" s="1">
-        <f>H7-F7</f>
+        <f t="shared" si="0"/>
         <v>1.5500000000000002E-3</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.580000000000001</v>
       </c>
       <c r="M7">
@@ -1013,7 +1013,7 @@
         <v>1.3703916630481983</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.558990377207852</v>
       </c>
       <c r="S7">
@@ -1034,7 +1034,7 @@
         <v>1500000000</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000</v>
       </c>
       <c r="E8">
@@ -1050,15 +1050,15 @@
         <v>2.5200000000000001E-3</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ref="I8:I9" si="3">G8-E8</f>
+        <f t="shared" ref="I8:I9" si="4">G8-E8</f>
         <v>67.319999999999993</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:J9" si="4">H8-F8</f>
+        <f t="shared" ref="J8:J9" si="5">H8-F8</f>
         <v>2.1299999999999999E-3</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6680000000000001</v>
       </c>
       <c r="M8">
@@ -1078,7 +1078,7 @@
         <v>1.3540095527572733</v>
       </c>
       <c r="R8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.657923223229961</v>
       </c>
       <c r="S8">
@@ -1086,7 +1086,7 @@
         <v>0.67700477637863665</v>
       </c>
       <c r="U8">
-        <f t="shared" ref="U8:U9" si="5">($S$9-S8)/$S$9*100</f>
+        <f t="shared" ref="U8:U9" si="6">($S$9-S8)/$S$9*100</f>
         <v>39.754200979301224</v>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
         <v>3000000000</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000000000</v>
       </c>
       <c r="E9">
@@ -1115,15 +1115,15 @@
         <v>5.6800000000000002E-3</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>134.64299999999997</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.82E-3</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.752000000000001</v>
       </c>
       <c r="L9" t="s">
@@ -1138,7 +1138,7 @@
         <v>1.1237377333912306</v>
       </c>
       <c r="R9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1714494865563587</v>
       </c>
       <c r="S9">
@@ -1146,7 +1146,7 @@
         <v>1.1237377333912306</v>
       </c>
       <c r="U9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1230,11 +1230,11 @@
         <v>6.2E-4</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ref="I12:I14" si="6">G12-E12</f>
+        <f t="shared" ref="I12:I14" si="7">G12-E12</f>
         <v>4.2390000000000008</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" ref="J12:J14" si="7">H12-F12</f>
+        <f t="shared" ref="J12:J14" si="8">H12-F12</f>
         <v>1.5999999999999999E-4</v>
       </c>
       <c r="K12" s="1">
@@ -1279,7 +1279,7 @@
         <v>75000000</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:D16" si="8">B13*C13</f>
+        <f t="shared" ref="D13:D16" si="9">B13*C13</f>
         <v>300000000</v>
       </c>
       <c r="E13">
@@ -1295,11 +1295,11 @@
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.319</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="K13" s="1">
@@ -1323,7 +1323,7 @@
         <v>0.1851272253582284</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13:R16" si="9">Q13/K13*100</f>
+        <f t="shared" ref="R13:R16" si="10">Q13/K13*100</f>
         <v>27.065383824302398</v>
       </c>
       <c r="S13">
@@ -1344,7 +1344,7 @@
         <v>100000000</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300000000</v>
       </c>
       <c r="E14">
@@ -1360,15 +1360,15 @@
         <v>3.2000000000000003E-4</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0749999999999993</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3000000000000001E-4</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" ref="K14:K16" si="10">J14*3600</f>
+        <f t="shared" ref="K14:K16" si="11">J14*3600</f>
         <v>0.82800000000000007</v>
       </c>
       <c r="M14">
@@ -1388,7 +1388,7 @@
         <v>0.16443074250976997</v>
       </c>
       <c r="R14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.858785327266904</v>
       </c>
       <c r="S14">
@@ -1409,7 +1409,7 @@
         <v>150000000</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300000000</v>
       </c>
       <c r="E15">
@@ -1433,7 +1433,7 @@
         <v>3.2999999999999994E-4</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1879999999999997</v>
       </c>
       <c r="M15">
@@ -1453,7 +1453,7 @@
         <v>0.19297438124185806</v>
       </c>
       <c r="R15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.243634784668188</v>
       </c>
       <c r="S15">
@@ -1474,7 +1474,7 @@
         <v>300000000</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300000000</v>
       </c>
       <c r="E16">
@@ -1498,7 +1498,7 @@
         <v>4.8999999999999998E-4</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.764</v>
       </c>
       <c r="L16" t="s">
@@ -1513,7 +1513,7 @@
         <v>0.13804429005644803</v>
       </c>
       <c r="R16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.8256400258757379</v>
       </c>
       <c r="S16">
@@ -1521,7 +1521,7 @@
         <v>0.13804429005644803</v>
       </c>
       <c r="U16">
-        <f t="shared" ref="U16" si="11">S$16-S16</f>
+        <f t="shared" ref="U16" si="12">S$16-S16</f>
         <v>0</v>
       </c>
     </row>
@@ -1605,11 +1605,11 @@
         <v>3.1E-4</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ref="I19:I21" si="12">G19-E19</f>
+        <f t="shared" ref="I19:I21" si="13">G19-E19</f>
         <v>3.8879999999999999</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" ref="J19:J21" si="13">H19-F19</f>
+        <f t="shared" ref="J19:J21" si="14">H19-F19</f>
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="K19" s="1">
@@ -1654,7 +1654,7 @@
         <v>75000000</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ref="D20:D23" si="14">B20*C20</f>
+        <f t="shared" ref="D20:D23" si="15">B20*C20</f>
         <v>300000000</v>
       </c>
       <c r="E20">
@@ -1670,11 +1670,11 @@
         <v>2.5999999999999998E-4</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.8840000000000003</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.7999999999999998E-4</v>
       </c>
       <c r="K20" s="1">
@@ -1698,7 +1698,7 @@
         <v>0.18992618323925298</v>
       </c>
       <c r="R20">
-        <f t="shared" ref="R20:R23" si="15">Q20/K20*100</f>
+        <f t="shared" ref="R20:R23" si="16">Q20/K20*100</f>
         <v>29.309596178897067</v>
       </c>
       <c r="S20">
@@ -1706,7 +1706,7 @@
         <v>4.7481545809813244E-2</v>
       </c>
       <c r="U20">
-        <f t="shared" ref="U20:U23" si="16">(S$23-S20)/S$23*100</f>
+        <f t="shared" ref="U20:U23" si="17">(S$23-S20)/S$23*100</f>
         <v>66.264993336294921</v>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
         <v>100000000</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>300000000</v>
       </c>
       <c r="E21">
@@ -1735,15 +1735,15 @@
         <v>3.3E-4</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.4220000000000006</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1999999999999998E-4</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" ref="K21:K23" si="17">J21*3600</f>
+        <f t="shared" ref="K21:K23" si="18">J21*3600</f>
         <v>0.79199999999999993</v>
       </c>
       <c r="M21">
@@ -1763,7 +1763,7 @@
         <v>0.18967607468519299</v>
       </c>
       <c r="R21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23.948999328938513</v>
       </c>
       <c r="S21">
@@ -1771,7 +1771,7 @@
         <v>6.3225358228397657E-2</v>
       </c>
       <c r="U21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>55.079224048570943</v>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
         <v>150000000</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>300000000</v>
       </c>
       <c r="E22">
@@ -1808,7 +1808,7 @@
         <v>2.9999999999999992E-4</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0799999999999996</v>
       </c>
       <c r="M22">
@@ -1828,7 +1828,7 @@
         <v>0.17698306556665155</v>
       </c>
       <c r="R22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16.387320885801078</v>
       </c>
       <c r="S22">
@@ -1836,7 +1836,7 @@
         <v>8.8491532783325777E-2</v>
       </c>
       <c r="U22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.127943136383884</v>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         <v>300000000</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>300000000</v>
       </c>
       <c r="E23">
@@ -1873,7 +1873,7 @@
         <v>4.3999999999999996E-4</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.5839999999999999</v>
       </c>
       <c r="L23" t="s">
@@ -1888,7 +1888,7 @@
         <v>0.14074858879722063</v>
       </c>
       <c r="R23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.8856432321477676</v>
       </c>
       <c r="S23">
@@ -1896,7 +1896,7 @@
         <v>0.14074858879722063</v>
       </c>
       <c r="U23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
         <v>3.1020000000000003</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" ref="J26:J28" si="18">H26-F26</f>
+        <f t="shared" ref="J26:J28" si="19">H26-F26</f>
         <v>1.2E-4</v>
       </c>
       <c r="K26" s="1">
@@ -2029,7 +2029,7 @@
         <v>75000000</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ref="D27:D30" si="19">B27*C27</f>
+        <f t="shared" ref="D27:D30" si="20">B27*C27</f>
         <v>300000000</v>
       </c>
       <c r="E27">
@@ -2065,7 +2065,7 @@
         <v>65.909090909090907</v>
       </c>
       <c r="P27">
-        <f t="shared" ref="P27:P30" si="20">I27*$H$2</f>
+        <f t="shared" ref="P27:P30" si="21">I27*$H$2</f>
         <v>0.36259487624837172</v>
       </c>
       <c r="Q27">
@@ -2073,7 +2073,7 @@
         <v>0.17740512375162831</v>
       </c>
       <c r="R27">
-        <f t="shared" ref="R27:R30" si="21">Q27/K27*100</f>
+        <f t="shared" ref="R27:R30" si="22">Q27/K27*100</f>
         <v>32.85280069474598</v>
       </c>
       <c r="S27">
@@ -2081,7 +2081,7 @@
         <v>4.4351280937907078E-2</v>
       </c>
       <c r="U27">
-        <f t="shared" ref="U27:U30" si="22">(S$30-S27)/S$30*100</f>
+        <f t="shared" ref="U27:U30" si="23">(S$30-S27)/S$30*100</f>
         <v>68.08492688413952</v>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
         <v>100000000</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>300000000</v>
       </c>
       <c r="E28">
@@ -2110,15 +2110,15 @@
         <v>2.5999999999999998E-4</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" ref="I28" si="23">G28-E28</f>
+        <f t="shared" ref="I28" si="24">G28-E28</f>
         <v>5.1470000000000002</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.7999999999999998E-4</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" ref="K28:K30" si="24">J28*3600</f>
+        <f t="shared" ref="K28:K30" si="25">J28*3600</f>
         <v>0.64799999999999991</v>
       </c>
       <c r="M28">
@@ -2130,7 +2130,7 @@
         <v>59.090909090909093</v>
       </c>
       <c r="P28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.48274077290490669</v>
       </c>
       <c r="Q28">
@@ -2138,7 +2138,7 @@
         <v>0.16525922709509322</v>
       </c>
       <c r="R28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.502967144304513</v>
       </c>
       <c r="S28">
@@ -2146,7 +2146,7 @@
         <v>5.5086409031697738E-2</v>
       </c>
       <c r="U28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60.359955005624379</v>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
         <v>150000000</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>300000000</v>
       </c>
       <c r="E29">
@@ -2183,7 +2183,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.9</v>
       </c>
       <c r="M29">
@@ -2195,7 +2195,7 @@
         <v>43.18181818181818</v>
       </c>
       <c r="P29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.72190707772470697</v>
       </c>
       <c r="Q29">
@@ -2203,7 +2203,7 @@
         <v>0.17809292227529305</v>
       </c>
       <c r="R29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19.788102475032559</v>
       </c>
       <c r="S29">
@@ -2211,7 +2211,7 @@
         <v>8.9046461137646526E-2</v>
       </c>
       <c r="U29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>35.922384701912343</v>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
         <v>300000000</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>300000000</v>
       </c>
       <c r="E30">
@@ -2248,14 +2248,14 @@
         <v>4.4000000000000002E-4</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5840000000000001</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
       </c>
       <c r="P30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.4450334346504559</v>
       </c>
       <c r="Q30">
@@ -2263,7 +2263,7 @@
         <v>0.13896656534954421</v>
       </c>
       <c r="R30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.7731417518651647</v>
       </c>
       <c r="S30">
@@ -2271,7 +2271,7 @@
         <v>0.13896656534954421</v>
       </c>
       <c r="U30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" ref="J33" si="25">H33-F33</f>
+        <f t="shared" ref="J33" si="26">H33-F33</f>
         <v>0</v>
       </c>
       <c r="M33" t="e">
@@ -2348,7 +2348,7 @@
         <v>75000000</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:D37" si="26">B34*C34</f>
+        <f t="shared" ref="D34:D37" si="27">B34*C34</f>
         <v>300000000</v>
       </c>
       <c r="E34"/>
@@ -2381,7 +2381,7 @@
         <v>100000000</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>300000000</v>
       </c>
       <c r="E35"/>
@@ -2389,11 +2389,11 @@
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35" s="1">
-        <f t="shared" ref="I35" si="27">G35-E35</f>
+        <f t="shared" ref="I35" si="28">G35-E35</f>
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" ref="J35" si="28">H35-F35</f>
+        <f t="shared" ref="J35" si="29">H35-F35</f>
         <v>0</v>
       </c>
       <c r="M35" t="e">
@@ -2414,7 +2414,7 @@
         <v>150000000</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>300000000</v>
       </c>
       <c r="E36"/>
@@ -2447,7 +2447,7 @@
         <v>300000000</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>300000000</v>
       </c>
       <c r="E37"/>
@@ -2537,11 +2537,11 @@
         <v>3.1E-4</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" ref="I40" si="29">G40-E40</f>
+        <f t="shared" ref="I40" si="30">G40-E40</f>
         <v>3.0949999999999998</v>
       </c>
       <c r="J40" s="4">
-        <f t="shared" ref="J40" si="30">H40-F40</f>
+        <f t="shared" ref="J40" si="31">H40-F40</f>
         <v>1.2999999999999999E-4</v>
       </c>
       <c r="K40" s="1">
@@ -2587,7 +2587,7 @@
         <v>75000000</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" ref="D41:D44" si="31">B41*C41</f>
+        <f t="shared" ref="D41:D44" si="32">B41*C41</f>
         <v>300000000</v>
       </c>
       <c r="E41">
@@ -2624,7 +2624,7 @@
         <v>100000000</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>300000000</v>
       </c>
       <c r="E42">
@@ -2640,15 +2640,15 @@
         <v>3.8999999999999999E-4</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" ref="I42" si="32">G42-E42</f>
+        <f t="shared" ref="I42" si="33">G42-E42</f>
         <v>7.0799999999999992</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" ref="J42" si="33">H42-F42</f>
+        <f t="shared" ref="J42" si="34">H42-F42</f>
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" ref="K42:K44" si="34">J42*3600</f>
+        <f t="shared" ref="K42:K44" si="35">J42*3600</f>
         <v>0.86399999999999999</v>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
         <v>150000000</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>300000000</v>
       </c>
       <c r="E43">
@@ -2685,7 +2685,7 @@
         <v>3.1999999999999997E-4</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.1519999999999999</v>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
         <v>300000000</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>300000000</v>
       </c>
       <c r="E44">
@@ -2722,7 +2722,7 @@
         <v>4.4000000000000007E-4</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.5840000000000003</v>
       </c>
     </row>
@@ -2774,11 +2774,11 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" s="1">
-        <f t="shared" ref="I47" si="35">G47-E47</f>
+        <f t="shared" ref="I47" si="36">G47-E47</f>
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" ref="J47" si="36">H47-F47</f>
+        <f t="shared" ref="J47" si="37">H47-F47</f>
         <v>0</v>
       </c>
       <c r="M47" t="e">
@@ -2799,7 +2799,7 @@
         <v>75000000</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" ref="D48:D51" si="37">B48*C48</f>
+        <f t="shared" ref="D48:D51" si="38">B48*C48</f>
         <v>300000000</v>
       </c>
       <c r="E48"/>
@@ -2832,7 +2832,7 @@
         <v>100000000</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>300000000</v>
       </c>
       <c r="E49"/>
@@ -2840,11 +2840,11 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" s="1">
-        <f t="shared" ref="I49" si="38">G49-E49</f>
+        <f t="shared" ref="I49" si="39">G49-E49</f>
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ref="J49" si="39">H49-F49</f>
+        <f t="shared" ref="J49" si="40">H49-F49</f>
         <v>0</v>
       </c>
       <c r="M49" t="e">
@@ -2865,7 +2865,7 @@
         <v>150000000</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>300000000</v>
       </c>
       <c r="E50"/>
@@ -2898,7 +2898,7 @@
         <v>300000000</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>300000000</v>
       </c>
       <c r="E51"/>
@@ -2965,7 +2965,7 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="J54" s="1">
-        <f t="shared" ref="J54" si="40">H54-F54</f>
+        <f t="shared" ref="J54" si="41">H54-F54</f>
         <v>0</v>
       </c>
       <c r="M54" t="e">
@@ -2986,7 +2986,7 @@
         <v>75000000</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" ref="D55:D58" si="41">B55*C55</f>
+        <f t="shared" ref="D55:D58" si="42">B55*C55</f>
         <v>300000000</v>
       </c>
       <c r="E55"/>
@@ -3015,7 +3015,7 @@
         <v>100000000</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>300000000</v>
       </c>
       <c r="E56"/>
@@ -3023,7 +3023,7 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="J56" s="1">
-        <f t="shared" ref="J56" si="42">H56-F56</f>
+        <f t="shared" ref="J56" si="43">H56-F56</f>
         <v>0</v>
       </c>
       <c r="M56" t="e">
@@ -3044,7 +3044,7 @@
         <v>150000000</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>300000000</v>
       </c>
       <c r="E57"/>
@@ -3073,7 +3073,7 @@
         <v>300000000</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>300000000</v>
       </c>
       <c r="E58"/>
@@ -3159,11 +3159,11 @@
         <v>5.5999999999999995E-4</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" ref="I61" si="43">G61-E61</f>
+        <f t="shared" ref="I61" si="44">G61-E61</f>
         <v>5.4559999999999995</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" ref="J61" si="44">H61-F61</f>
+        <f t="shared" ref="J61" si="45">H61-F61</f>
         <v>1.9999999999999993E-4</v>
       </c>
       <c r="K61" s="1">
@@ -3208,7 +3208,7 @@
         <v>75000000</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" ref="D62:D65" si="45">B62*C62</f>
+        <f t="shared" ref="D62:D65" si="46">B62*C62</f>
         <v>300000000</v>
       </c>
       <c r="E62">
@@ -3244,7 +3244,7 @@
         <v>69.73684210526315</v>
       </c>
       <c r="P62">
-        <f t="shared" ref="P62:P65" si="46">I62*$H$2</f>
+        <f t="shared" ref="P62:P65" si="47">I62*$H$2</f>
         <v>0.63402518454190171</v>
       </c>
       <c r="Q62">
@@ -3252,7 +3252,7 @@
         <v>0.19397481545809847</v>
       </c>
       <c r="R62">
-        <f t="shared" ref="R62:R65" si="47">Q62/K62*100</f>
+        <f t="shared" ref="R62:R65" si="48">Q62/K62*100</f>
         <v>23.426910079480486</v>
       </c>
       <c r="S62">
@@ -3260,7 +3260,7 @@
         <v>4.8493703864524618E-2</v>
       </c>
       <c r="U62">
-        <f t="shared" ref="U62:U65" si="48">($S$65-S62)/$S$65*100</f>
+        <f t="shared" ref="U62:U65" si="49">($S$65-S62)/$S$65*100</f>
         <v>76.744752623688157</v>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
         <v>100000000</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>300000000</v>
       </c>
       <c r="E63">
@@ -3289,15 +3289,15 @@
         <v>4.4000000000000002E-4</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" ref="I63" si="49">G63-E63</f>
+        <f t="shared" ref="I63" si="50">G63-E63</f>
         <v>9.027000000000001</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" ref="J63" si="50">H63-F63</f>
+        <f t="shared" ref="J63" si="51">H63-F63</f>
         <v>2.9E-4</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" ref="K63:K65" si="51">J63*3600</f>
+        <f t="shared" ref="K63:K65" si="52">J63*3600</f>
         <v>1.044</v>
       </c>
       <c r="M63">
@@ -3309,7 +3309,7 @@
         <v>61.842105263157897</v>
       </c>
       <c r="P63">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.84664871906209305</v>
       </c>
       <c r="Q63">
@@ -3317,7 +3317,7 @@
         <v>0.19735128093790699</v>
       </c>
       <c r="R63">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>18.903379400182661</v>
       </c>
       <c r="S63">
@@ -3325,7 +3325,7 @@
         <v>6.5783760312635664E-2</v>
       </c>
       <c r="U63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>68.453273363318417</v>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
         <v>150000000</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>300000000</v>
       </c>
       <c r="E64">
@@ -3362,7 +3362,7 @@
         <v>4.1000000000000005E-4</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.4760000000000002</v>
       </c>
       <c r="M64">
@@ -3374,7 +3374,7 @@
         <v>46.05263157894737</v>
       </c>
       <c r="P64">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.2667372991749892</v>
       </c>
       <c r="Q64">
@@ -3382,7 +3382,7 @@
         <v>0.20926270082501097</v>
       </c>
       <c r="R64">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>14.17768975779207</v>
       </c>
       <c r="S64">
@@ -3390,7 +3390,7 @@
         <v>0.10463135041250549</v>
       </c>
       <c r="U64">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>49.823838080959582</v>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
         <v>300000000</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>300000000</v>
       </c>
       <c r="E65">
@@ -3427,14 +3427,14 @@
         <v>7.6000000000000004E-4</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2.7360000000000002</v>
       </c>
       <c r="L65" t="s">
         <v>13</v>
       </c>
       <c r="P65">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2.52747199305254</v>
       </c>
       <c r="Q65">
@@ -3442,7 +3442,7 @@
         <v>0.20852800694746021</v>
       </c>
       <c r="R65">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>7.6216376808282238</v>
       </c>
       <c r="S65">
@@ -3450,7 +3450,7 @@
         <v>0.20852800694746021</v>
       </c>
       <c r="U65">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
